--- a/uploads/dlf icon.xlsx
+++ b/uploads/dlf icon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="379">
   <si>
     <t>OWNER NAME</t>
   </si>
@@ -1129,6 +1129,33 @@
   </si>
   <si>
     <t>hyuye78w</t>
+  </si>
+  <si>
+    <t>whjdqbe</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>hgdsvued</t>
+  </si>
+  <si>
+    <t>dshid</t>
+  </si>
+  <si>
+    <t>9810006434</t>
+  </si>
+  <si>
+    <t>wsheewii</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>efre</t>
+  </si>
+  <si>
+    <t>ghgfu</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1589,6 +1616,9 @@
       <c r="B3" s="6">
         <v>8527540740</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>378</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1635,6 +1665,9 @@
       <c r="B8" s="6">
         <v>9810082711</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>376</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1643,6 +1676,9 @@
       <c r="B9" s="6">
         <v>9810000721</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>377</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -1720,6 +1756,9 @@
       <c r="B19" s="6">
         <v>9899111160</v>
       </c>
+      <c r="C19" t="s" s="0">
+        <v>370</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -1728,11 +1767,17 @@
       <c r="B20" s="6">
         <v>9910071451</v>
       </c>
+      <c r="C20" t="s" s="0">
+        <v>372</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="21" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s" s="0">
+        <v>371</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="21" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -1828,6 +1873,9 @@
       <c r="B34" s="6">
         <v>9810068151</v>
       </c>
+      <c r="C34" t="s" s="0">
+        <v>375</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="21" customHeight="1">
       <c r="A35" s="3" t="s">
@@ -1836,6 +1884,9 @@
       <c r="B35" s="6">
         <v>9322234359</v>
       </c>
+      <c r="C35" t="s" s="0">
+        <v>371</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="21" customHeight="1">
       <c r="A36" s="3" t="s">
@@ -1884,6 +1935,9 @@
       <c r="B41" s="6">
         <v>9953541889</v>
       </c>
+      <c r="C41" t="s" s="0">
+        <v>373</v>
+      </c>
     </row>
     <row r="42" spans="1:2" ht="21" customHeight="1">
       <c r="A42" s="3" t="s">
@@ -1913,8 +1967,8 @@
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="6">
-        <v>9810006434</v>
+      <c r="B45" s="6" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="21" customHeight="1">
